--- a/biology/Zoologie/Hesperocharis_nera/Hesperocharis_nera.xlsx
+++ b/biology/Zoologie/Hesperocharis_nera/Hesperocharis_nera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperocharis nera est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Hesperocharis.
 </t>
@@ -511,82 +523,91 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hesperocharis nera a été décrit par William Chapman Hewitson en 1852 sous le nom de Pieris nera[1].
-Noms vernaculaires
-Hesperocharis nera se nomme Nera white en anglais.
-Sous-espèces
-Hesperocharis nera nera
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperocharis nera a été décrit par William Chapman Hewitson en 1852 sous le nom de Pieris nera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperocharis nera se nomme Nera white en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hesperocharis nera nera
 Hesperocharis nera aida Fruhstorfer, 1908; en Bolivie et au Pérou.
 Hesperocharis nera amazonica Fruhstorfer, 1907; en Équateur et au Pérou.
 Hesperocharis nera lamonti Kaye, 1920; à Trinité-et-Tobago
 Hesperocharis nera nereis C. &amp; R. Felder, 1865; en Colombie
 Hesperocharis nera nerida Zikán, 1940; au Brésil
-Hesperocharis nera nymphaea Möschler, 1876; au Surinam, en Guyane, au Brésil[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hesperocharis_nera</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesperocharis nera est un papillon de couleur blanche à jaune suivant les sous-espèces avec aux ailes antérieures l'apex marron et les ailes postérieures bordées de marron. Le revers est identique avec les ailes postérieures suffusées de jaune et les veines marquées de marron chez certaines sous-espèces.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hesperocharis_nera</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol
-Il vole toute l'année.
-Plantes hôtes</t>
+Hesperocharis nera nymphaea Möschler, 1876; au Surinam, en Guyane, au Brésil.</t>
         </is>
       </c>
     </row>
@@ -611,14 +632,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperocharis nera est un papillon de couleur blanche à jaune suivant les sous-espèces avec aux ailes antérieures l'apex marron et les ailes postérieures bordées de marron. Le revers est identique avec les ailes postérieures suffusées de jaune et les veines marquées de marron chez certaines sous-espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesperocharis nera est présent dans tout le nord de l'Amérique du Sud, en Équateur, à Trinité, en  Colombie, au Surinam, en Guyane, en Bolivie, au Brésil et au Pérou[1].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperocharis nera est présent dans tout le nord de l'Amérique du Sud, en Équateur, à Trinité, en  Colombie, au Surinam, en Guyane, en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocharis_nera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
